--- a/biology/Écologie/Facteur_limitant/Facteur_limitant.xlsx
+++ b/biology/Écologie/Facteur_limitant/Facteur_limitant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le facteur limitant est le facteur qui va conditionner la vitesse ou l’amplitude d’un phénomène plurifactoriel à un moment précis. À ce moment-là, tous les autres facteurs permettant la réalisation de ce phénomène sont en excès par rapport au facteur limitant. Le concept de quantité relative est très important, une modification des proportions peut changer la nature du facteur limitant.
 Cette notion semble être apparue au XIXe siècle dans le cadre des recherches agricoles mais est utilisée dans de multiples domaines. Notamment :
@@ -512,9 +524,11 @@
           <t>En agriculture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle désigne initialement les composants du sol et a été formalisée en 1840 par la Loi de Liebig sur le minimum[1]. Mais elle peut s’étendre à l’ensemble des facteurs externes (ensoleillement, précipitations, prédateurs, etc.) ou internes (espèce, surface racinaire, etc.), et même à l’ensemble des organismes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle désigne initialement les composants du sol et a été formalisée en 1840 par la Loi de Liebig sur le minimum. Mais elle peut s’étendre à l’ensemble des facteurs externes (ensoleillement, précipitations, prédateurs, etc.) ou internes (espèce, surface racinaire, etc.), et même à l’ensemble des organismes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>En alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il désigne parfois les carences d’un régime alimentaire, généralement les huit acides aminés essentiels que l’Homme ne peut pas synthétiser lui-même à partir des nutriments.
 </t>
@@ -574,7 +590,9 @@
           <t>En chimie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle désigne le substrat (on parle alors de réactif limitant) disparaissant le plus vite et limitant donc la quantité de produit formé ou le facteur (substrat, concentration, température, enzyme ou autre catalyseur) limitant la vitesse de la réaction.
 </t>
@@ -605,7 +623,9 @@
           <t>En écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle désigne pour une espèce ou un groupe d'espèce, un facteur écologique absent ou présent (hors de la capacité d'adaptation d'un organisme). 
 Les facteurs limitants sont ceux qui expliquent la présence durable ou non de populations viables d'organismes dans un écosystème donné ou dans une niche écologique au sein de cet écosystème ou d'un organisme (bactéries dans l'intestin par exemple). 
